--- a/folder tugas/Link materi DPW2-3042019006 widi.xlsx
+++ b/folder tugas/Link materi DPW2-3042019006 widi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>no</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>https://www.instagram.com/p/CKD1kavArqC/?utm_source=ig_web_copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tv/CKMjspRgH7i/?utm_source=ig_web_copy_link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CKMnWW5gKgV/?utm_source=ig_web_copy_link</t>
+  </si>
+  <si>
+    <t>URL Instagram IGTV</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CKMn88tgETX/?utm_source=ig_web_copy_link</t>
   </si>
 </sst>
 </file>
@@ -472,7 +484,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,7 +509,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
@@ -715,7 +729,9 @@
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
@@ -728,8 +744,12 @@
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
